--- a/REGULAR/DSWD/DIMAPILIS, VILMA.xlsx
+++ b/REGULAR/DSWD/DIMAPILIS, VILMA.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="261">
   <si>
     <t>PERIOD</t>
   </si>
@@ -824,6 +824,9 @@
   </si>
   <si>
     <t>UT(0-2-6)</t>
+  </si>
+  <si>
+    <t>11/23,24/2023</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1530,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K638" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K639" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1856,12 +1859,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M638"/>
+  <dimension ref="A2:M639"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A584" activePane="bottomLeft"/>
       <selection activeCell="M9" sqref="M9"/>
-      <selection pane="bottomLeft" activeCell="I595" sqref="I595"/>
+      <selection pane="bottomLeft" activeCell="F597" sqref="F597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2020,7 +2023,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>177.98399999999998</v>
+        <v>178.48399999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2030,7 +2033,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>195.75</v>
+        <v>197.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14447,15 +14450,17 @@
       <c r="B594" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C594" s="13"/>
+      <c r="C594" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D594" s="39">
         <v>1</v>
       </c>
       <c r="E594" s="9"/>
       <c r="F594" s="20"/>
-      <c r="G594" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G594" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H594" s="39"/>
       <c r="I594" s="9"/>
@@ -14487,44 +14492,56 @@
       </c>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A596" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B596" s="20"/>
+      <c r="A596" s="40"/>
+      <c r="B596" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C596" s="13"/>
       <c r="D596" s="39"/>
       <c r="E596" s="9"/>
       <c r="F596" s="20"/>
-      <c r="G596" s="42" t="str">
+      <c r="G596" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H596" s="39"/>
+      <c r="H596" s="39">
+        <v>1</v>
+      </c>
       <c r="I596" s="9"/>
       <c r="J596" s="11"/>
-      <c r="K596" s="20"/>
+      <c r="K596" s="50">
+        <v>45198</v>
+      </c>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B597" s="20"/>
-      <c r="C597" s="13"/>
-      <c r="D597" s="39"/>
+        <v>45200</v>
+      </c>
+      <c r="B597" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C597" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D597" s="39">
+        <v>2</v>
+      </c>
       <c r="E597" s="9"/>
       <c r="F597" s="20"/>
-      <c r="G597" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G597" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H597" s="39"/>
       <c r="I597" s="9"/>
       <c r="J597" s="11"/>
-      <c r="K597" s="20"/>
+      <c r="K597" s="20" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -14542,7 +14559,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -14560,7 +14577,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -14578,7 +14595,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -14596,7 +14613,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -14614,7 +14631,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -14632,7 +14649,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -14650,7 +14667,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -14668,7 +14685,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -14686,7 +14703,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -14704,7 +14721,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -14721,7 +14738,9 @@
       <c r="K608" s="20"/>
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A609" s="40"/>
+      <c r="A609" s="40">
+        <v>45566</v>
+      </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
       <c r="D609" s="39"/>
@@ -15185,20 +15204,36 @@
       <c r="K637" s="20"/>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A638" s="41"/>
-      <c r="B638" s="15"/>
-      <c r="C638" s="42"/>
-      <c r="D638" s="43"/>
-      <c r="E638" s="53"/>
-      <c r="F638" s="15"/>
+      <c r="A638" s="40"/>
+      <c r="B638" s="20"/>
+      <c r="C638" s="13"/>
+      <c r="D638" s="39"/>
+      <c r="E638" s="9"/>
+      <c r="F638" s="20"/>
       <c r="G638" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H638" s="43"/>
-      <c r="I638" s="53"/>
-      <c r="J638" s="12"/>
-      <c r="K638" s="15"/>
+      <c r="H638" s="39"/>
+      <c r="I638" s="9"/>
+      <c r="J638" s="11"/>
+      <c r="K638" s="20"/>
+    </row>
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A639" s="41"/>
+      <c r="B639" s="15"/>
+      <c r="C639" s="42"/>
+      <c r="D639" s="43"/>
+      <c r="E639" s="53"/>
+      <c r="F639" s="15"/>
+      <c r="G639" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H639" s="43"/>
+      <c r="I639" s="53"/>
+      <c r="J639" s="12"/>
+      <c r="K639" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15371,7 +15406,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!I9,Sheet1!E9)</f>
-        <v>373.73399999999998</v>
+        <v>375.73399999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
